--- a/biology/Zoologie/Balanin_des_châtaignes/Balanin_des_châtaignes.xlsx
+++ b/biology/Zoologie/Balanin_des_châtaignes/Balanin_des_châtaignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
+          <t>Balanin_des_châtaignes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculio elephas
 Le balanin des châtaignes, Curculio elephas, est une espèce d'insectes coléoptères de la famille des Curculionidae, originaire de l'Ancien monde.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
+          <t>Balanin_des_châtaignes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Tela Insecta[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tela Insecta :
 Balaninus elephas Gyllenhal 1836,
-Curculio gulosus Fabricius 1792
-Noms vernaculaires
-Le balanin des châtaignes est également appelé « Balanin éléphant » en raison de son très long rostre incurvé (moins que celui de l'espèce proche Curculio nucum, le Balanin des noisettes), ou encore « Charançon des châtaignes »[2],[3],[4],[5].
-Le terme « balanin » vient de balanos qui signifie « gland » en grec ancien[6].
-Dans la région bordelaise, cet insecte est aussi appelé sous le nom de bête à trompe, du latin betrus trumpus.
-</t>
+Curculio gulosus Fabricius 1792</t>
         </is>
       </c>
     </row>
@@ -533,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
+          <t>Balanin_des_châtaignes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'aire de répartition du balanin des châtaignes s'étend dans l'est de la zone paléarctique : Europe, Afrique du Nord, Moyen-Orient[7].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le balanin des châtaignes est également appelé « Balanin éléphant » en raison de son très long rostre incurvé (moins que celui de l'espèce proche Curculio nucum, le Balanin des noisettes), ou encore « Charançon des châtaignes ».
+Le terme « balanin » vient de balanos qui signifie « gland » en grec ancien.
+Dans la région bordelaise, cet insecte est aussi appelé sous le nom de bête à trompe, du latin betrus trumpus.
 </t>
         </is>
       </c>
@@ -564,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
+          <t>Balanin_des_châtaignes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du balanin des châtaignes s'étend dans l'est de la zone paléarctique : Europe, Afrique du Nord, Moyen-Orient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Balanin_des_châtaignes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balanin_des_ch%C3%A2taignes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle biologique est univoltin, il comprend au total un stade œuf, 4 stades larvaires et le stade adulte.
 La femelle pond dans les châtaignes et la larve s'y développe.
@@ -595,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Balanin_des_châtaignes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balanin_des_ch%C3%A2taignes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dégâts sont causés principalement par les larves qui se développent dans les fruits. Ceux-ci présentent à leur base des ponctuations brunes résultants des encoches de ponte creusées par les femelles. Les galeries forées par les larves sont remplies de déjections brunes et compactes.
 Les fruits attaqués tendent à tomber prématurément. Les larves quittent le fruit en perçant un trou. Les arbres stressés sont plus sujets aux attaques et les attaques sont plus intenses lors des années de faible production.
@@ -627,31 +684,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Balanin_des_ch%C3%A2taignes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Balanin_des_châtaignes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balanin_des_ch%C3%A2taignes</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La biologie du balanin ne permet pas de l’atteindre par des insecticides chimiques, mais sa phase de sensibilité est son hibernation dans le sol.
 </t>
